--- a/admin/laporan_peminjaman_2024-03.xlsx
+++ b/admin/laporan_peminjaman_2024-03.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>ID Peminjaman</t>
   </si>
@@ -35,13 +35,13 @@
     <t>Status Peminjam</t>
   </si>
   <si>
-    <t>Dikta &amp; Hukum</t>
-  </si>
-  <si>
-    <t>jamal</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
+    <t xml:space="preserve"> Dilan : Dia Adalah Dilanku Tahun 1990</t>
+  </si>
+  <si>
+    <t>marsha</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
   </si>
   <si>
     <t>0000-00-00</t>
@@ -50,34 +50,13 @@
     <t>dikembalikan</t>
   </si>
   <si>
-    <t>Nikola Maldini</t>
-  </si>
-  <si>
-    <t>Yang Telah Lama Pergi</t>
-  </si>
-  <si>
-    <t>jeno</t>
-  </si>
-  <si>
-    <t>Laut Bercerita</t>
-  </si>
-  <si>
-    <t>2024-03-03</t>
+    <t>Himpunan</t>
   </si>
   <si>
     <t>Filosofi Teras</t>
   </si>
   <si>
-    <t>Grey &amp; Jingga - Days of Violet</t>
-  </si>
-  <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
-    <t>Himpunan</t>
-  </si>
-  <si>
-    <t>dipinjam</t>
+    <t>dila</t>
   </si>
 </sst>
 </file>
@@ -417,7 +396,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +466,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -500,100 +479,6 @@
       </c>
       <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>213</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>214</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>216</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>217</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
